--- a/files/snapdeal.xlsx
+++ b/files/snapdeal.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,22 +20,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>wallet</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">ATH </t>
+  </si>
+  <si>
+    <t>DUBRO</t>
+  </si>
+  <si>
+    <t>sathiyamoorthi</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>mithran</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,9 +362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -355,7 +375,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>